--- a/data-done/huehn.stability.xlsx
+++ b/data-done/huehn.stability.xlsx
@@ -420,10 +420,10 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
